--- a/RoomID.xlsx
+++ b/RoomID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitWork\Airbnb data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE9976-2203-4B71-B100-EEF9EEBAEB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9CD79-587D-493C-8727-6A5C15095F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5760" windowWidth="22536" windowHeight="8280" xr2:uid="{D7A8E803-04FB-4918-B9B3-6FD0BB9BB951}"/>
+    <workbookView xWindow="1056" yWindow="2760" windowWidth="27492" windowHeight="12048" xr2:uid="{D7A8E803-04FB-4918-B9B3-6FD0BB9BB951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>830193102361409290</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>43435162</t>
+  </si>
+  <si>
+    <t>837352260137971048</t>
+  </si>
+  <si>
+    <t>49525472</t>
+  </si>
+  <si>
+    <t>716883705085875481</t>
+  </si>
+  <si>
+    <t>969823904189469776</t>
   </si>
 </sst>
 </file>
@@ -83,15 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,40 +440,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4266EB53-8B1B-4BB5-9A15-F5260CB5C087}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/RoomID.xlsx
+++ b/RoomID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitWork\Airbnb data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9CD79-587D-493C-8727-6A5C15095F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553EBB4-4D80-4A25-9ECA-CDE1E15A28F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="2760" windowWidth="27492" windowHeight="12048" xr2:uid="{D7A8E803-04FB-4918-B9B3-6FD0BB9BB951}"/>
+    <workbookView xWindow="1056" yWindow="2760" windowWidth="9744" windowHeight="12048" xr2:uid="{D7A8E803-04FB-4918-B9B3-6FD0BB9BB951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,16 +50,16 @@
     <t>43435162</t>
   </si>
   <si>
+    <t>49525472</t>
+  </si>
+  <si>
+    <t>716883705085875481</t>
+  </si>
+  <si>
+    <t>969823904189469776</t>
+  </si>
+  <si>
     <t>837352260137971048</t>
-  </si>
-  <si>
-    <t>49525472</t>
-  </si>
-  <si>
-    <t>716883705085875481</t>
-  </si>
-  <si>
-    <t>969823904189469776</t>
   </si>
 </sst>
 </file>
@@ -443,12 +443,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,50 +462,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/RoomID.xlsx
+++ b/RoomID.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitWork\Airbnb data Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitWork\AirBnB-data-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553EBB4-4D80-4A25-9ECA-CDE1E15A28F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AB79E4-2DF9-4475-A658-34FFCD5F7290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="2760" windowWidth="9744" windowHeight="12048" xr2:uid="{D7A8E803-04FB-4918-B9B3-6FD0BB9BB951}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12120" xr2:uid="{D7A8E803-04FB-4918-B9B3-6FD0BB9BB951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>830193102361409290</t>
   </si>
@@ -60,6 +61,18 @@
   </si>
   <si>
     <t>837352260137971048</t>
+  </si>
+  <si>
+    <t>37603491</t>
+  </si>
+  <si>
+    <t>635947170438929163</t>
+  </si>
+  <si>
+    <t>10478001</t>
+  </si>
+  <si>
+    <t>1255600611300259176</t>
   </si>
 </sst>
 </file>
@@ -440,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4266EB53-8B1B-4BB5-9A15-F5260CB5C087}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,34 +478,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42099D0A-255C-4139-B715-B3CCAF4CAD4B}">
+  <dimension ref="A3:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>